--- a/results/OH/oh_results.xlsx
+++ b/results/OH/oh_results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MEDSL\election_night2020\results\OH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E72B1287-0920-4FAB-B38A-523DF836B073}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427701CB-796A-4E90-A9A5-FCEBE3B3FD2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D7894A7D-218B-422C-983A-592D43A17F80}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D7894A7D-218B-422C-983A-592D43A17F80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="11051230pm" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="108">
   <si>
     <t>county</t>
   </si>
@@ -307,13 +308,64 @@
   </si>
   <si>
     <t>biden</t>
+  </si>
+  <si>
+    <t>pct_returned</t>
+  </si>
+  <si>
+    <t>95% in</t>
+  </si>
+  <si>
+    <t>94.6% in</t>
+  </si>
+  <si>
+    <t>99% in</t>
+  </si>
+  <si>
+    <t>91.9% in</t>
+  </si>
+  <si>
+    <t>92.5% in</t>
+  </si>
+  <si>
+    <t>82.2% in</t>
+  </si>
+  <si>
+    <t>88% in</t>
+  </si>
+  <si>
+    <t>91.2% in</t>
+  </si>
+  <si>
+    <t>87.4% in</t>
+  </si>
+  <si>
+    <t>93.5% in</t>
+  </si>
+  <si>
+    <t>94.7% in</t>
+  </si>
+  <si>
+    <t>93.1% in</t>
+  </si>
+  <si>
+    <t>81.3% in</t>
+  </si>
+  <si>
+    <t>86.3% in</t>
+  </si>
+  <si>
+    <t>94.9% in</t>
+  </si>
+  <si>
+    <t>89.8% in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +385,12 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF2A2A2A"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -342,7 +400,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -359,11 +417,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFEBEBEB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFEBEBEB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -376,6 +454,15 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -693,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B2FD1C-901F-4B4C-85A2-9B9D989EA291}">
   <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1685,4 +1772,1270 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E629B8F-78B0-4BC3-A6CA-9CF493125271}">
+  <dimension ref="A1:D89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D89"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>9660</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2130</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>32052</v>
+      </c>
+      <c r="C3" s="3">
+        <v>13611</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>19002</v>
+      </c>
+      <c r="C4" s="3">
+        <v>6448</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>26225</v>
+      </c>
+      <c r="C5" s="3">
+        <v>16207</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>10386</v>
+      </c>
+      <c r="C6" s="3">
+        <v>14047</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>20451</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4583</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>23092</v>
+      </c>
+      <c r="C8" s="3">
+        <v>9007</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>16032</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4326</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>111722</v>
+      </c>
+      <c r="C10" s="3">
+        <v>67729</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10525</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3206</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>14086</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4946</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>38217</v>
+      </c>
+      <c r="C13" s="3">
+        <v>23625</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>73077</v>
+      </c>
+      <c r="C14" s="3">
+        <v>33505</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>15061</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4556</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>35124</v>
+      </c>
+      <c r="C16" s="3">
+        <v>13183</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>11982</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4057</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>15043</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4831</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>195089</v>
+      </c>
+      <c r="C19" s="3">
+        <v>402315</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>21569</v>
+      </c>
+      <c r="C20" s="3">
+        <v>4668</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>12778</v>
+      </c>
+      <c r="C21" s="3">
+        <v>5870</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>65163</v>
+      </c>
+      <c r="C22" s="3">
+        <v>56961</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <v>21724</v>
+      </c>
+      <c r="C23" s="3">
+        <v>17142</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>49714</v>
+      </c>
+      <c r="C24" s="3">
+        <v>30634</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <v>9220</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2911</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <v>203154</v>
+      </c>
+      <c r="C26" s="3">
+        <v>391584</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3">
+        <v>15396</v>
+      </c>
+      <c r="C27" s="3">
+        <v>6545</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3">
+        <v>10289</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2911</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3">
+        <v>33581</v>
+      </c>
+      <c r="C29" s="3">
+        <v>20980</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3">
+        <v>50937</v>
+      </c>
+      <c r="C30" s="3">
+        <v>34023</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3">
+        <v>13077</v>
+      </c>
+      <c r="C31" s="3">
+        <v>4498</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3">
+        <v>173015</v>
+      </c>
+      <c r="C32" s="3">
+        <v>238101</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3">
+        <v>25796</v>
+      </c>
+      <c r="C33" s="3">
+        <v>11535</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3">
+        <v>9698</v>
+      </c>
+      <c r="C34" s="3">
+        <v>3025</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3">
+        <v>5668</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1742</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3">
+        <v>10273</v>
+      </c>
+      <c r="C36" s="3">
+        <v>3995</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3">
+        <v>15369</v>
+      </c>
+      <c r="C37" s="3">
+        <v>3741</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3">
+        <v>9554</v>
+      </c>
+      <c r="C38" s="3">
+        <v>3836</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3">
+        <v>10645</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1981</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3">
+        <v>18537</v>
+      </c>
+      <c r="C40" s="3">
+        <v>7643</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3">
+        <v>10804</v>
+      </c>
+      <c r="C41" s="3">
+        <v>3193</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3">
+        <v>22309</v>
+      </c>
+      <c r="C42" s="3">
+        <v>9823</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3">
+        <v>21825</v>
+      </c>
+      <c r="C43" s="3">
+        <v>8433</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3">
+        <v>71615</v>
+      </c>
+      <c r="C44" s="3">
+        <v>54337</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3">
+        <v>19759</v>
+      </c>
+      <c r="C45" s="3">
+        <v>7353</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3">
+        <v>57965</v>
+      </c>
+      <c r="C46" s="3">
+        <v>32324</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3">
+        <v>17625</v>
+      </c>
+      <c r="C47" s="3">
+        <v>4990</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3">
+        <v>76719</v>
+      </c>
+      <c r="C48" s="3">
+        <v>72792</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3">
+        <v>79628</v>
+      </c>
+      <c r="C49" s="3">
+        <v>111989</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3">
+        <v>13445</v>
+      </c>
+      <c r="C50" s="3">
+        <v>5558</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3">
+        <v>58601</v>
+      </c>
+      <c r="C51" s="3">
+        <v>56346</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3">
+        <v>18526</v>
+      </c>
+      <c r="C52" s="3">
+        <v>8089</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3">
+        <v>63451</v>
+      </c>
+      <c r="C53" s="3">
+        <v>39326</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3">
+        <v>8163</v>
+      </c>
+      <c r="C54" s="3">
+        <v>2452</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3">
+        <v>19145</v>
+      </c>
+      <c r="C55" s="3">
+        <v>3981</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3">
+        <v>40531</v>
+      </c>
+      <c r="C56" s="3">
+        <v>15420</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3">
+        <v>5392</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1597</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3">
+        <v>126085</v>
+      </c>
+      <c r="C58" s="3">
+        <v>131592</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3">
+        <v>4932</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1703</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3">
+        <v>13784</v>
+      </c>
+      <c r="C60" s="3">
+        <v>3988</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3">
+        <v>27334</v>
+      </c>
+      <c r="C61" s="3">
+        <v>11755</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3">
+        <v>5024</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1156</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3">
+        <v>14285</v>
+      </c>
+      <c r="C63" s="3">
+        <v>8847</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3">
+        <v>6927</v>
+      </c>
+      <c r="C64" s="3">
+        <v>2172</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3">
+        <v>11959</v>
+      </c>
+      <c r="C65" s="3">
+        <v>4006</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3">
+        <v>20059</v>
+      </c>
+      <c r="C66" s="3">
+        <v>7167</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3">
+        <v>8872</v>
+      </c>
+      <c r="C67" s="3">
+        <v>3051</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3">
+        <v>45034</v>
+      </c>
+      <c r="C68" s="3">
+        <v>34935</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3">
+        <v>16697</v>
+      </c>
+      <c r="C69" s="3">
+        <v>4435</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3">
+        <v>16218</v>
+      </c>
+      <c r="C70" s="3">
+        <v>3152</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3">
+        <v>40534</v>
+      </c>
+      <c r="C71" s="3">
+        <v>17231</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3">
+        <v>21687</v>
+      </c>
+      <c r="C72" s="3">
+        <v>10345</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3">
+        <v>18487</v>
+      </c>
+      <c r="C73" s="3">
+        <v>10391</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3">
+        <v>21926</v>
+      </c>
+      <c r="C74" s="3">
+        <v>8876</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3">
+        <v>16739</v>
+      </c>
+      <c r="C75" s="3">
+        <v>8147</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3">
+        <v>19988</v>
+      </c>
+      <c r="C76" s="3">
+        <v>4399</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3">
+        <v>108610</v>
+      </c>
+      <c r="C77" s="3">
+        <v>74336</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3">
+        <v>122023</v>
+      </c>
+      <c r="C78" s="3">
+        <v>148151</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3">
+        <v>53756</v>
+      </c>
+      <c r="C79" s="3">
+        <v>43534</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3">
+        <v>29519</v>
+      </c>
+      <c r="C80" s="3">
+        <v>12643</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3">
+        <v>21233</v>
+      </c>
+      <c r="C81" s="3">
+        <v>10985</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3">
+        <v>11470</v>
+      </c>
+      <c r="C82" s="3">
+        <v>3026</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3">
+        <v>4525</v>
+      </c>
+      <c r="C83" s="3">
+        <v>1306</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3">
+        <v>85069</v>
+      </c>
+      <c r="C84" s="3">
+        <v>45040</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3">
+        <v>21798</v>
+      </c>
+      <c r="C85" s="3">
+        <v>9114</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3">
+        <v>33618</v>
+      </c>
+      <c r="C86" s="3">
+        <v>24040</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3">
+        <v>13218</v>
+      </c>
+      <c r="C87" s="3">
+        <v>4726</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3">
+        <v>34815</v>
+      </c>
+      <c r="C88" s="3">
+        <v>29797</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3">
+        <v>8248</v>
+      </c>
+      <c r="C89" s="3">
+        <v>2690</v>
+      </c>
+      <c r="D89" s="6">
+        <v>0.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>